--- a/src/output/resultsByEtiology1.xlsx
+++ b/src/output/resultsByEtiology1.xlsx
@@ -352,16 +352,16 @@
         <v>0.0</v>
       </c>
       <c r="C1" t="n">
-        <v>1129.0</v>
+        <v>1143.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
       </c>
       <c r="E1" t="n">
-        <v>489.0</v>
+        <v>542.0</v>
       </c>
       <c r="F1" t="n">
-        <v>225.0</v>
+        <v>244.0</v>
       </c>
       <c r="G1" t="n">
         <v>0.0</v>
@@ -375,16 +375,16 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n">
-        <v>791.0</v>
+        <v>880.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>364.0</v>
+        <v>363.0</v>
       </c>
       <c r="F2" t="n">
-        <v>218.0</v>
+        <v>162.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -395,19 +395,19 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>815.0</v>
+        <v>806.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>376.0</v>
+        <v>360.0</v>
       </c>
       <c r="F3" t="n">
-        <v>156.0</v>
+        <v>153.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -415,25 +415,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>843.0</v>
+        <v>796.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0</v>
+        <v>418.0</v>
       </c>
       <c r="F4" t="n">
-        <v>141.0</v>
+        <v>173.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -441,45 +441,45 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n">
-        <v>833.0</v>
+        <v>894.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>370.0</v>
+        <v>398.0</v>
       </c>
       <c r="F5" t="n">
-        <v>181.0</v>
+        <v>173.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" t="n">
-        <v>877.0</v>
+        <v>862.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="n">
-        <v>334.0</v>
+        <v>351.0</v>
       </c>
       <c r="F6" t="n">
-        <v>200.0</v>
+        <v>162.0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -490,88 +490,88 @@
         <v>3.0</v>
       </c>
       <c r="C7" t="n">
-        <v>798.0</v>
+        <v>769.0</v>
       </c>
       <c r="D7" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="E7" t="n">
-        <v>338.0</v>
+        <v>291.0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.0</v>
+        <v>173.0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B8" t="n">
         <v>1.0</v>
       </c>
       <c r="C8" t="n">
-        <v>790.0</v>
+        <v>797.0</v>
       </c>
       <c r="D8" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="E8" t="n">
-        <v>288.0</v>
+        <v>349.0</v>
       </c>
       <c r="F8" t="n">
-        <v>203.0</v>
+        <v>177.0</v>
       </c>
       <c r="G8" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
       </c>
       <c r="C9" t="n">
-        <v>797.0</v>
+        <v>817.0</v>
       </c>
       <c r="D9" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="E9" t="n">
-        <v>350.0</v>
+        <v>325.0</v>
       </c>
       <c r="F9" t="n">
-        <v>163.0</v>
+        <v>197.0</v>
       </c>
       <c r="G9" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C10" t="n">
-        <v>748.0</v>
+        <v>763.0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="E10" t="n">
-        <v>323.0</v>
+        <v>337.0</v>
       </c>
       <c r="F10" t="n">
-        <v>189.0</v>
+        <v>199.0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
@@ -579,68 +579,68 @@
         <v>3.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C11" t="n">
-        <v>682.0</v>
+        <v>667.0</v>
       </c>
       <c r="D11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="E11" t="n">
-        <v>303.0</v>
+        <v>337.0</v>
       </c>
       <c r="F11" t="n">
-        <v>165.0</v>
+        <v>174.0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C12" t="n">
-        <v>575.0</v>
+        <v>605.0</v>
       </c>
       <c r="D12" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="E12" t="n">
-        <v>351.0</v>
+        <v>294.0</v>
       </c>
       <c r="F12" t="n">
-        <v>179.0</v>
+        <v>153.0</v>
       </c>
       <c r="G12" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B13" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" t="n">
-        <v>590.0</v>
+        <v>559.0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="E13" t="n">
-        <v>326.0</v>
+        <v>343.0</v>
       </c>
       <c r="F13" t="n">
-        <v>180.0</v>
+        <v>165.0</v>
       </c>
       <c r="G13" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
@@ -648,22 +648,22 @@
         <v>2.0</v>
       </c>
       <c r="B14" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" t="n">
-        <v>594.0</v>
+        <v>538.0</v>
       </c>
       <c r="D14" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="E14" t="n">
-        <v>297.0</v>
+        <v>273.0</v>
       </c>
       <c r="F14" t="n">
-        <v>161.0</v>
+        <v>168.0</v>
       </c>
       <c r="G14" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
@@ -671,298 +671,298 @@
         <v>4.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C15" t="n">
-        <v>621.0</v>
+        <v>591.0</v>
       </c>
       <c r="D15" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="E15" t="n">
-        <v>262.0</v>
+        <v>272.0</v>
       </c>
       <c r="F15" t="n">
-        <v>192.0</v>
+        <v>162.0</v>
       </c>
       <c r="G15" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" t="n">
-        <v>637.0</v>
+        <v>590.0</v>
       </c>
       <c r="D16" t="n">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
       <c r="E16" t="n">
-        <v>219.0</v>
+        <v>230.0</v>
       </c>
       <c r="F16" t="n">
-        <v>181.0</v>
+        <v>155.0</v>
       </c>
       <c r="G16" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C17" t="n">
-        <v>601.0</v>
+        <v>575.0</v>
       </c>
       <c r="D17" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="E17" t="n">
-        <v>228.0</v>
+        <v>235.0</v>
       </c>
       <c r="F17" t="n">
-        <v>198.0</v>
+        <v>188.0</v>
       </c>
       <c r="G17" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B18" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C18" t="n">
-        <v>536.0</v>
+        <v>559.0</v>
       </c>
       <c r="D18" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="E18" t="n">
-        <v>226.0</v>
+        <v>216.0</v>
       </c>
       <c r="F18" t="n">
-        <v>162.0</v>
+        <v>166.0</v>
       </c>
       <c r="G18" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B19" t="n">
         <v>1.0</v>
       </c>
       <c r="C19" t="n">
-        <v>567.0</v>
+        <v>521.0</v>
       </c>
       <c r="D19" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0</v>
+        <v>228.0</v>
       </c>
       <c r="F19" t="n">
-        <v>147.0</v>
+        <v>150.0</v>
       </c>
       <c r="G19" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B20" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C20" t="n">
-        <v>539.0</v>
+        <v>542.0</v>
       </c>
       <c r="D20" t="n">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="E20" t="n">
-        <v>221.0</v>
+        <v>227.0</v>
       </c>
       <c r="F20" t="n">
-        <v>137.0</v>
+        <v>174.0</v>
       </c>
       <c r="G20" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B21" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C21" t="n">
-        <v>518.0</v>
+        <v>555.0</v>
       </c>
       <c r="D21" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="E21" t="n">
-        <v>228.0</v>
+        <v>205.0</v>
       </c>
       <c r="F21" t="n">
-        <v>135.0</v>
+        <v>139.0</v>
       </c>
       <c r="G21" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C22" t="n">
-        <v>599.0</v>
+        <v>545.0</v>
       </c>
       <c r="D22" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="E22" t="n">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
       <c r="F22" t="n">
-        <v>169.0</v>
+        <v>152.0</v>
       </c>
       <c r="G22" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B23" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C23" t="n">
-        <v>569.0</v>
+        <v>589.0</v>
       </c>
       <c r="D23" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="E23" t="n">
-        <v>214.0</v>
+        <v>213.0</v>
       </c>
       <c r="F23" t="n">
-        <v>152.0</v>
+        <v>155.0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B24" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C24" t="n">
-        <v>545.0</v>
+        <v>589.0</v>
       </c>
       <c r="D24" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="E24" t="n">
-        <v>214.0</v>
+        <v>202.0</v>
       </c>
       <c r="F24" t="n">
-        <v>137.0</v>
+        <v>175.0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B25" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C25" t="n">
-        <v>583.0</v>
+        <v>554.0</v>
       </c>
       <c r="D25" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="E25" t="n">
-        <v>188.0</v>
+        <v>206.0</v>
       </c>
       <c r="F25" t="n">
-        <v>165.0</v>
+        <v>154.0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B26" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C26" t="n">
-        <v>571.0</v>
+        <v>530.0</v>
       </c>
       <c r="D26" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="E26" t="n">
-        <v>208.0</v>
+        <v>197.0</v>
       </c>
       <c r="F26" t="n">
-        <v>147.0</v>
+        <v>154.0</v>
       </c>
       <c r="G26" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B27" t="n">
         <v>1.0</v>
       </c>
       <c r="C27" t="n">
-        <v>565.0</v>
+        <v>539.0</v>
       </c>
       <c r="D27" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="E27" t="n">
-        <v>209.0</v>
+        <v>204.0</v>
       </c>
       <c r="F27" t="n">
-        <v>166.0</v>
+        <v>142.0</v>
       </c>
       <c r="G27" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="28">
@@ -970,229 +970,229 @@
         <v>2.0</v>
       </c>
       <c r="B28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>573.0</v>
+        <v>553.0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="E28" t="n">
-        <v>192.0</v>
+        <v>186.0</v>
       </c>
       <c r="F28" t="n">
-        <v>159.0</v>
+        <v>144.0</v>
       </c>
       <c r="G28" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B29" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C29" t="n">
-        <v>600.0</v>
+        <v>647.0</v>
       </c>
       <c r="D29" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="E29" t="n">
-        <v>184.0</v>
+        <v>165.0</v>
       </c>
       <c r="F29" t="n">
-        <v>172.0</v>
+        <v>169.0</v>
       </c>
       <c r="G29" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B30" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C30" t="n">
-        <v>616.0</v>
+        <v>631.0</v>
       </c>
       <c r="D30" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="E30" t="n">
-        <v>174.0</v>
+        <v>145.0</v>
       </c>
       <c r="F30" t="n">
-        <v>175.0</v>
+        <v>180.0</v>
       </c>
       <c r="G30" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B31" t="n">
         <v>3.0</v>
       </c>
       <c r="C31" t="n">
-        <v>610.0</v>
+        <v>626.0</v>
       </c>
       <c r="D31" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="E31" t="n">
-        <v>167.0</v>
+        <v>168.0</v>
       </c>
       <c r="F31" t="n">
-        <v>159.0</v>
+        <v>169.0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C32" t="n">
-        <v>586.0</v>
+        <v>602.0</v>
       </c>
       <c r="D32" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="E32" t="n">
-        <v>156.0</v>
+        <v>163.0</v>
       </c>
       <c r="F32" t="n">
-        <v>154.0</v>
+        <v>179.0</v>
       </c>
       <c r="G32" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B33" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" t="n">
-        <v>567.0</v>
+        <v>585.0</v>
       </c>
       <c r="D33" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="E33" t="n">
-        <v>144.0</v>
+        <v>161.0</v>
       </c>
       <c r="F33" t="n">
-        <v>168.0</v>
+        <v>163.0</v>
       </c>
       <c r="G33" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B34" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C34" t="n">
-        <v>724.0</v>
+        <v>721.0</v>
       </c>
       <c r="D34" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="E34" t="n">
-        <v>166.0</v>
+        <v>177.0</v>
       </c>
       <c r="F34" t="n">
-        <v>166.0</v>
+        <v>181.0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B35" t="n">
         <v>7.0</v>
       </c>
-      <c r="B35" t="n">
-        <v>3.0</v>
-      </c>
       <c r="C35" t="n">
-        <v>845.0</v>
+        <v>878.0</v>
       </c>
       <c r="D35" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="E35" t="n">
-        <v>156.0</v>
+        <v>151.0</v>
       </c>
       <c r="F35" t="n">
-        <v>198.0</v>
+        <v>205.0</v>
       </c>
       <c r="G35" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B36" t="n">
         <v>4.0</v>
       </c>
       <c r="C36" t="n">
-        <v>848.0</v>
+        <v>870.0</v>
       </c>
       <c r="D36" t="n">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
       <c r="E36" t="n">
-        <v>140.0</v>
+        <v>148.0</v>
       </c>
       <c r="F36" t="n">
-        <v>236.0</v>
+        <v>213.0</v>
       </c>
       <c r="G36" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C37" t="n">
-        <v>945.0</v>
+        <v>1008.0</v>
       </c>
       <c r="D37" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="E37" t="n">
-        <v>150.0</v>
+        <v>160.0</v>
       </c>
       <c r="F37" t="n">
-        <v>221.0</v>
+        <v>236.0</v>
       </c>
       <c r="G37" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="38">
@@ -1200,111 +1200,111 @@
         <v>3.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C38" t="n">
-        <v>1013.0</v>
+        <v>1115.0</v>
       </c>
       <c r="D38" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="E38" t="n">
-        <v>161.0</v>
+        <v>192.0</v>
       </c>
       <c r="F38" t="n">
-        <v>250.0</v>
+        <v>265.0</v>
       </c>
       <c r="G38" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="B39" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C39" t="n">
-        <v>1274.0</v>
+        <v>1243.0</v>
       </c>
       <c r="D39" t="n">
-        <v>20.0</v>
+        <v>35.0</v>
       </c>
       <c r="E39" t="n">
-        <v>197.0</v>
+        <v>201.0</v>
       </c>
       <c r="F39" t="n">
-        <v>333.0</v>
+        <v>345.0</v>
       </c>
       <c r="G39" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1437.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="G40" t="n">
         <v>9.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1417.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>202.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>367.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B41" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C41" t="n">
-        <v>1585.0</v>
+        <v>1548.0</v>
       </c>
       <c r="D41" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="E41" t="n">
-        <v>206.0</v>
+        <v>205.0</v>
       </c>
       <c r="F41" t="n">
-        <v>435.0</v>
+        <v>403.0</v>
       </c>
       <c r="G41" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C42" t="n">
-        <v>1756.0</v>
+        <v>1773.0</v>
       </c>
       <c r="D42" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
       <c r="E42" t="n">
-        <v>215.0</v>
+        <v>232.0</v>
       </c>
       <c r="F42" t="n">
-        <v>501.0</v>
+        <v>461.0</v>
       </c>
       <c r="G42" t="n">
         <v>10.0</v>
@@ -1312,114 +1312,114 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B43" t="n">
         <v>4.0</v>
       </c>
-      <c r="B43" t="n">
-        <v>3.0</v>
-      </c>
       <c r="C43" t="n">
-        <v>1768.0</v>
+        <v>1827.0</v>
       </c>
       <c r="D43" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="E43" t="n">
-        <v>233.0</v>
+        <v>235.0</v>
       </c>
       <c r="F43" t="n">
-        <v>489.0</v>
+        <v>514.0</v>
       </c>
       <c r="G43" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C44" t="n">
-        <v>1697.0</v>
+        <v>1755.0</v>
       </c>
       <c r="D44" t="n">
-        <v>41.0</v>
+        <v>47.0</v>
       </c>
       <c r="E44" t="n">
-        <v>297.0</v>
+        <v>275.0</v>
       </c>
       <c r="F44" t="n">
-        <v>518.0</v>
+        <v>513.0</v>
       </c>
       <c r="G44" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="B45" t="n">
         <v>6.0</v>
       </c>
       <c r="C45" t="n">
-        <v>2026.0</v>
+        <v>2061.0</v>
       </c>
       <c r="D45" t="n">
-        <v>24.0</v>
+        <v>41.0</v>
       </c>
       <c r="E45" t="n">
-        <v>324.0</v>
+        <v>331.0</v>
       </c>
       <c r="F45" t="n">
-        <v>545.0</v>
+        <v>556.0</v>
       </c>
       <c r="G45" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2235.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="G46" t="n">
         <v>7.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2160.0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>316.0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>604.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>8.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C47" t="n">
-        <v>2285.0</v>
+        <v>2413.0</v>
       </c>
       <c r="D47" t="n">
-        <v>52.0</v>
+        <v>41.0</v>
       </c>
       <c r="E47" t="n">
-        <v>295.0</v>
+        <v>284.0</v>
       </c>
       <c r="F47" t="n">
-        <v>746.0</v>
+        <v>693.0</v>
       </c>
       <c r="G47" t="n">
         <v>11.0</v>
@@ -1427,25 +1427,25 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C48" t="n">
-        <v>2561.0</v>
+        <v>2560.0</v>
       </c>
       <c r="D48" t="n">
-        <v>48.0</v>
+        <v>62.0</v>
       </c>
       <c r="E48" t="n">
-        <v>255.0</v>
+        <v>339.0</v>
       </c>
       <c r="F48" t="n">
-        <v>721.0</v>
+        <v>708.0</v>
       </c>
       <c r="G48" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="49">
@@ -1453,65 +1453,65 @@
         <v>8.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C49" t="n">
-        <v>2655.0</v>
+        <v>2750.0</v>
       </c>
       <c r="D49" t="n">
-        <v>58.0</v>
+        <v>67.0</v>
       </c>
       <c r="E49" t="n">
-        <v>349.0</v>
+        <v>346.0</v>
       </c>
       <c r="F49" t="n">
-        <v>785.0</v>
+        <v>787.0</v>
       </c>
       <c r="G49" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B50" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C50" t="n">
-        <v>2654.0</v>
+        <v>2772.0</v>
       </c>
       <c r="D50" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E50" t="n">
-        <v>402.0</v>
+        <v>397.0</v>
       </c>
       <c r="F50" t="n">
-        <v>853.0</v>
+        <v>803.0</v>
       </c>
       <c r="G50" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C51" t="n">
-        <v>2794.0</v>
+        <v>2721.0</v>
       </c>
       <c r="D51" t="n">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
       <c r="E51" t="n">
-        <v>427.0</v>
+        <v>460.0</v>
       </c>
       <c r="F51" t="n">
-        <v>808.0</v>
+        <v>844.0</v>
       </c>
       <c r="G51" t="n">
         <v>10.0</v>
@@ -1519,71 +1519,71 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B52" t="n">
         <v>2.0</v>
       </c>
       <c r="C52" t="n">
-        <v>2951.0</v>
+        <v>2885.0</v>
       </c>
       <c r="D52" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="E52" t="n">
-        <v>446.0</v>
+        <v>402.0</v>
       </c>
       <c r="F52" t="n">
-        <v>863.0</v>
+        <v>835.0</v>
       </c>
       <c r="G52" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C53" t="n">
-        <v>3089.0</v>
+        <v>3212.0</v>
       </c>
       <c r="D53" t="n">
-        <v>55.0</v>
+        <v>63.0</v>
       </c>
       <c r="E53" t="n">
-        <v>405.0</v>
+        <v>438.0</v>
       </c>
       <c r="F53" t="n">
-        <v>1000.0</v>
+        <v>973.0</v>
       </c>
       <c r="G53" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B54" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C54" t="n">
-        <v>3347.0</v>
+        <v>3336.0</v>
       </c>
       <c r="D54" t="n">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="E54" t="n">
-        <v>426.0</v>
+        <v>420.0</v>
       </c>
       <c r="F54" t="n">
-        <v>985.0</v>
+        <v>1023.0</v>
       </c>
       <c r="G54" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="55">
@@ -1591,272 +1591,272 @@
         <v>3.0</v>
       </c>
       <c r="B55" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C55" t="n">
-        <v>3542.0</v>
+        <v>3553.0</v>
       </c>
       <c r="D55" t="n">
-        <v>85.0</v>
+        <v>68.0</v>
       </c>
       <c r="E55" t="n">
-        <v>463.0</v>
+        <v>443.0</v>
       </c>
       <c r="F55" t="n">
-        <v>1127.0</v>
+        <v>1115.0</v>
       </c>
       <c r="G55" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B56" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="C56" t="n">
-        <v>3598.0</v>
+        <v>3751.0</v>
       </c>
       <c r="D56" t="n">
-        <v>77.0</v>
+        <v>64.0</v>
       </c>
       <c r="E56" t="n">
-        <v>444.0</v>
+        <v>473.0</v>
       </c>
       <c r="F56" t="n">
-        <v>1241.0</v>
+        <v>1222.0</v>
       </c>
       <c r="G56" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B57" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="C57" t="n">
-        <v>3704.0</v>
+        <v>3792.0</v>
       </c>
       <c r="D57" t="n">
-        <v>89.0</v>
+        <v>73.0</v>
       </c>
       <c r="E57" t="n">
-        <v>604.0</v>
+        <v>531.0</v>
       </c>
       <c r="F57" t="n">
-        <v>1271.0</v>
+        <v>1245.0</v>
       </c>
       <c r="G57" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B58" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="C58" t="n">
-        <v>3690.0</v>
+        <v>3674.0</v>
       </c>
       <c r="D58" t="n">
-        <v>79.0</v>
+        <v>73.0</v>
       </c>
       <c r="E58" t="n">
-        <v>617.0</v>
+        <v>530.0</v>
       </c>
       <c r="F58" t="n">
-        <v>1280.0</v>
+        <v>1244.0</v>
       </c>
       <c r="G58" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="B59" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C59" t="n">
-        <v>3999.0</v>
+        <v>3924.0</v>
       </c>
       <c r="D59" t="n">
-        <v>74.0</v>
+        <v>71.0</v>
       </c>
       <c r="E59" t="n">
-        <v>567.0</v>
+        <v>583.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1270.0</v>
+        <v>1327.0</v>
       </c>
       <c r="G59" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B60" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C60" t="n">
-        <v>4215.0</v>
+        <v>4148.0</v>
       </c>
       <c r="D60" t="n">
-        <v>77.0</v>
+        <v>72.0</v>
       </c>
       <c r="E60" t="n">
-        <v>561.0</v>
+        <v>601.0</v>
       </c>
       <c r="F60" t="n">
-        <v>1466.0</v>
+        <v>1399.0</v>
       </c>
       <c r="G60" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C61" t="n">
-        <v>4292.0</v>
+        <v>4414.0</v>
       </c>
       <c r="D61" t="n">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="E61" t="n">
-        <v>533.0</v>
+        <v>611.0</v>
       </c>
       <c r="F61" t="n">
-        <v>1584.0</v>
+        <v>1560.0</v>
       </c>
       <c r="G61" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B62" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C62" t="n">
-        <v>4388.0</v>
+        <v>4594.0</v>
       </c>
       <c r="D62" t="n">
         <v>80.0</v>
       </c>
       <c r="E62" t="n">
-        <v>553.0</v>
+        <v>530.0</v>
       </c>
       <c r="F62" t="n">
-        <v>1657.0</v>
+        <v>1542.0</v>
       </c>
       <c r="G62" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B63" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="C63" t="n">
-        <v>4717.0</v>
+        <v>4814.0</v>
       </c>
       <c r="D63" t="n">
-        <v>96.0</v>
+        <v>75.0</v>
       </c>
       <c r="E63" t="n">
-        <v>630.0</v>
+        <v>637.0</v>
       </c>
       <c r="F63" t="n">
-        <v>1749.0</v>
+        <v>1717.0</v>
       </c>
       <c r="G63" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="B64" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C64" t="n">
-        <v>4720.0</v>
+        <v>4773.0</v>
       </c>
       <c r="D64" t="n">
-        <v>104.0</v>
+        <v>91.0</v>
       </c>
       <c r="E64" t="n">
-        <v>701.0</v>
+        <v>683.0</v>
       </c>
       <c r="F64" t="n">
-        <v>1831.0</v>
+        <v>1735.0</v>
       </c>
       <c r="G64" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B65" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C65" t="n">
-        <v>4558.0</v>
+        <v>4555.0</v>
       </c>
       <c r="D65" t="n">
-        <v>86.0</v>
+        <v>82.0</v>
       </c>
       <c r="E65" t="n">
-        <v>704.0</v>
+        <v>718.0</v>
       </c>
       <c r="F65" t="n">
-        <v>1755.0</v>
+        <v>1652.0</v>
       </c>
       <c r="G65" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B66" t="n">
         <v>7.0</v>
       </c>
       <c r="C66" t="n">
-        <v>4725.0</v>
+        <v>4840.0</v>
       </c>
       <c r="D66" t="n">
-        <v>83.0</v>
+        <v>77.0</v>
       </c>
       <c r="E66" t="n">
-        <v>654.0</v>
+        <v>745.0</v>
       </c>
       <c r="F66" t="n">
-        <v>1735.0</v>
+        <v>1698.0</v>
       </c>
       <c r="G66" t="n">
         <v>23.0</v>
@@ -1864,255 +1864,255 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="B67" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="C67" t="n">
-        <v>5051.0</v>
+        <v>5118.0</v>
       </c>
       <c r="D67" t="n">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="E67" t="n">
-        <v>682.0</v>
+        <v>692.0</v>
       </c>
       <c r="F67" t="n">
-        <v>1905.0</v>
+        <v>1850.0</v>
       </c>
       <c r="G67" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B68" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="C68" t="n">
-        <v>5260.0</v>
+        <v>5068.0</v>
       </c>
       <c r="D68" t="n">
-        <v>99.0</v>
+        <v>86.0</v>
       </c>
       <c r="E68" t="n">
-        <v>691.0</v>
+        <v>649.0</v>
       </c>
       <c r="F68" t="n">
-        <v>2084.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G68" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C69" t="n">
-        <v>5252.0</v>
+        <v>5342.0</v>
       </c>
       <c r="D69" t="n">
-        <v>87.0</v>
+        <v>101.0</v>
       </c>
       <c r="E69" t="n">
-        <v>700.0</v>
+        <v>694.0</v>
       </c>
       <c r="F69" t="n">
-        <v>2097.0</v>
+        <v>1916.0</v>
       </c>
       <c r="G69" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B70" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C70" t="n">
-        <v>5522.0</v>
+        <v>5467.0</v>
       </c>
       <c r="D70" t="n">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
       <c r="E70" t="n">
-        <v>709.0</v>
+        <v>753.0</v>
       </c>
       <c r="F70" t="n">
-        <v>2150.0</v>
+        <v>1969.0</v>
       </c>
       <c r="G70" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="B71" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C71" t="n">
-        <v>5406.0</v>
+        <v>5469.0</v>
       </c>
       <c r="D71" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="E71" t="n">
-        <v>804.0</v>
+        <v>786.0</v>
       </c>
       <c r="F71" t="n">
-        <v>2157.0</v>
+        <v>2047.0</v>
       </c>
       <c r="G71" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="B72" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="C72" t="n">
-        <v>5303.0</v>
+        <v>5246.0</v>
       </c>
       <c r="D72" t="n">
-        <v>85.0</v>
+        <v>100.0</v>
       </c>
       <c r="E72" t="n">
-        <v>770.0</v>
+        <v>887.0</v>
       </c>
       <c r="F72" t="n">
-        <v>2223.0</v>
+        <v>1962.0</v>
       </c>
       <c r="G72" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B73" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C73" t="n">
-        <v>5455.0</v>
+        <v>5361.0</v>
       </c>
       <c r="D73" t="n">
-        <v>104.0</v>
+        <v>84.0</v>
       </c>
       <c r="E73" t="n">
-        <v>796.0</v>
+        <v>864.0</v>
       </c>
       <c r="F73" t="n">
-        <v>2055.0</v>
+        <v>1968.0</v>
       </c>
       <c r="G73" t="n">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="B74" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C74" t="n">
-        <v>5486.0</v>
+        <v>5542.0</v>
       </c>
       <c r="D74" t="n">
-        <v>86.0</v>
+        <v>94.0</v>
       </c>
       <c r="E74" t="n">
-        <v>771.0</v>
+        <v>821.0</v>
       </c>
       <c r="F74" t="n">
-        <v>2310.0</v>
+        <v>2113.0</v>
       </c>
       <c r="G74" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="B75" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="C75" t="n">
-        <v>5596.0</v>
+        <v>5576.0</v>
       </c>
       <c r="D75" t="n">
-        <v>90.0</v>
+        <v>84.0</v>
       </c>
       <c r="E75" t="n">
-        <v>749.0</v>
+        <v>780.0</v>
       </c>
       <c r="F75" t="n">
-        <v>2460.0</v>
+        <v>2151.0</v>
       </c>
       <c r="G75" t="n">
-        <v>29.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="B76" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C76" t="n">
-        <v>5597.0</v>
+        <v>5663.0</v>
       </c>
       <c r="D76" t="n">
-        <v>97.0</v>
+        <v>110.0</v>
       </c>
       <c r="E76" t="n">
-        <v>833.0</v>
+        <v>847.0</v>
       </c>
       <c r="F76" t="n">
-        <v>2323.0</v>
+        <v>2221.0</v>
       </c>
       <c r="G76" t="n">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B77" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="C77" t="n">
-        <v>5899.0</v>
+        <v>5892.0</v>
       </c>
       <c r="D77" t="n">
-        <v>111.0</v>
+        <v>93.0</v>
       </c>
       <c r="E77" t="n">
-        <v>829.0</v>
+        <v>889.0</v>
       </c>
       <c r="F77" t="n">
-        <v>2444.0</v>
+        <v>2213.0</v>
       </c>
       <c r="G77" t="n">
-        <v>35.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="78">
